--- a/Gantt Lake Stable Isotope/Gantt_MixSIAR Outputs.xlsx
+++ b/Gantt Lake Stable Isotope/Gantt_MixSIAR Outputs.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaelynfogelman/Documents/GitHub/Gantt Lake Stable Isotope/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjf0021\Documents\GitHub\Gantt-Stable-Isotope\Gantt Lake Stable Isotope\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8945D2B-1BBA-7E4C-90B2-0F2EF8976737}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{429AFC63-A6FA-44FE-B43B-1AAE83415C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="460" windowWidth="25040" windowHeight="13500" xr2:uid="{8C96F04C-207B-8F44-AB27-8BF7B317D104}"/>
+    <workbookView xWindow="-28920" yWindow="-1575" windowWidth="29040" windowHeight="15840" xr2:uid="{8C96F04C-207B-8F44-AB27-8BF7B317D104}"/>
   </bookViews>
   <sheets>
-    <sheet name="Model Diagnostics" sheetId="1" r:id="rId1"/>
-    <sheet name="code" sheetId="2" r:id="rId2"/>
+    <sheet name="PIP Valid Model Diagnostics" sheetId="3" r:id="rId1"/>
+    <sheet name="Pre-PIP Model Diagnostics" sheetId="1" r:id="rId2"/>
+    <sheet name="code" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="147">
   <si>
     <t xml:space="preserve">NULL Model - Uninformative Prior </t>
   </si>
@@ -244,159 +245,254 @@
     <t>Generally the Gelman diagnostic should be &lt; 1.05</t>
   </si>
   <si>
-    <t>Out of 65 variables: 9 &gt; 1.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                      3 &gt; 1.05</t>
-  </si>
-  <si>
     <t xml:space="preserve">                      0 &gt; 1.1</t>
   </si>
   <si>
     <t>The worst variables are:</t>
   </si>
   <si>
+    <t># Geweke Diagnostic</t>
+  </si>
+  <si>
+    <t>The Geweke diagnostic is a standard z-score, so we'd expect 5% to be outside +/-1.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Chain 1 Chain 2 Chain 3</t>
+  </si>
+  <si>
+    <t># Summary Statistics</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>Out of 58 variables: 0 &gt; 1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      0 &gt; 1.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Point est. Upper C.I.</t>
+  </si>
+  <si>
+    <t>loglik[19]   1.003019   1.009315</t>
+  </si>
+  <si>
+    <t>loglik[16]   1.002681   1.008456</t>
+  </si>
+  <si>
+    <t>loglik[18]   1.002570   1.008294</t>
+  </si>
+  <si>
+    <t>loglik[17]   1.002333   1.007719</t>
+  </si>
+  <si>
+    <t>loglik[12]   1.002197   1.007203</t>
+  </si>
+  <si>
+    <t>loglik[47]   1.002073   1.007616</t>
+  </si>
+  <si>
+    <t>loglik[26]   1.001894   1.006969</t>
+  </si>
+  <si>
+    <t>loglik[10]   1.001888   1.005408</t>
+  </si>
+  <si>
+    <t>loglik[6]    1.001793   1.004906</t>
+  </si>
+  <si>
+    <t>loglik[11]   1.001615   1.006103</t>
+  </si>
+  <si>
+    <t>Number of variables outside +/-1.96 in each chain (out of 58):</t>
+  </si>
+  <si>
+    <t>Geweke       0       0       0</t>
+  </si>
+  <si>
+    <t>DIC = -22.69199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Mean    SD  2.5%    5%   25%   50%   75%   95% 97.5%</t>
+  </si>
+  <si>
+    <t>Epsilon.1     0.084 0.024 0.045 0.050 0.068 0.082 0.098 0.127 0.137</t>
+  </si>
+  <si>
+    <t>Epsilon.2     0.137 0.049 0.057 0.068 0.102 0.131 0.166 0.225 0.250</t>
+  </si>
+  <si>
+    <t>p.global.CPOM 0.028 0.025 0.001 0.002 0.009 0.020 0.039 0.078 0.094</t>
+  </si>
+  <si>
+    <t>p.global.FPOM 0.962 0.026 0.895 0.910 0.948 0.967 0.981 0.993 0.996</t>
+  </si>
+  <si>
+    <t>p.global.SPOM 0.011 0.010 0.000 0.001 0.003 0.008 0.015 0.032 0.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species Model - Uninformative Prior </t>
+  </si>
+  <si>
+    <t>Out of 73 variables: 0 &gt; 1.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Point est. Upper C.I.</t>
+  </si>
+  <si>
+    <t>deviance      1.002121   1.006610</t>
+  </si>
+  <si>
+    <t>loglik[2]     1.001421   1.004350</t>
+  </si>
+  <si>
+    <t>p.fac1[3,3]   1.001251   1.001445</t>
+  </si>
+  <si>
+    <t>loglik[21]    1.001233   1.002802</t>
+  </si>
+  <si>
+    <t>loglik[36]    1.001214   1.004857</t>
+  </si>
+  <si>
+    <t>loglik[10]    1.001203   1.004652</t>
+  </si>
+  <si>
+    <t>loglik[14]    1.001174   1.003779</t>
+  </si>
+  <si>
+    <t>loglik[22]    1.001125   1.002515</t>
+  </si>
+  <si>
+    <t>loglik[6]     1.001122   1.004640</t>
+  </si>
+  <si>
+    <t>loglik[37]    1.000943   1.002941</t>
+  </si>
+  <si>
+    <t>Number of variables outside +/-1.96 in each chain (out of 73):</t>
+  </si>
+  <si>
+    <t>Geweke       4       1       4</t>
+  </si>
+  <si>
+    <t>DIC = -26.55352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                          Mean    SD  2.5%    5%   25%   50%   75%   95% 97.5%</t>
+  </si>
+  <si>
+    <t>Epsilon.1                0.076 0.023 0.039 0.044 0.061 0.074 0.089 0.117 0.129</t>
+  </si>
+  <si>
+    <t>Epsilon.2                0.141 0.049 0.062 0.071 0.106 0.136 0.169 0.229 0.257</t>
+  </si>
+  <si>
+    <t>p.A. hartfieldorum .CPOM 0.046 0.033 0.002 0.005 0.020 0.039 0.066 0.108 0.125</t>
+  </si>
+  <si>
+    <t>p.E. pullata.CPOM        0.068 0.043 0.001 0.004 0.033 0.065 0.098 0.144 0.156</t>
+  </si>
+  <si>
+    <t>p.F. escambia.CPOM       0.013 0.014 0.000 0.001 0.003 0.008 0.018 0.040 0.049</t>
+  </si>
+  <si>
+    <t>p.A. hartfieldorum .FPOM 0.939 0.033 0.865 0.878 0.919 0.944 0.964 0.984 0.989</t>
+  </si>
+  <si>
+    <t>p.E. pullata.FPOM        0.913 0.038 0.835 0.846 0.888 0.915 0.940 0.974 0.982</t>
+  </si>
+  <si>
+    <t>p.F. escambia.FPOM       0.982 0.015 0.944 0.952 0.975 0.987 0.993 0.998 0.998</t>
+  </si>
+  <si>
+    <t>p.A. hartfieldorum .SPOM 0.015 0.014 0.000 0.001 0.005 0.011 0.022 0.041 0.049</t>
+  </si>
+  <si>
+    <t>p.E. pullata.SPOM        0.020 0.018 0.000 0.001 0.004 0.014 0.030 0.057 0.065</t>
+  </si>
+  <si>
+    <t>p.F. escambia.SPOM       0.005 0.006 0.000 0.000 0.001 0.003 0.006 0.017 0.022</t>
+  </si>
+  <si>
+    <t>Null Model</t>
+  </si>
+  <si>
     <t xml:space="preserve">              Point est. Upper C.I.</t>
   </si>
   <si>
-    <t>p.global[10]    1.080557   1.254383</t>
-  </si>
-  <si>
-    <t>p.global[2]     1.068602   1.197762</t>
-  </si>
-  <si>
-    <t>p.global[6]     1.060069   1.178073</t>
-  </si>
-  <si>
-    <t>p.global[7]     1.041811   1.125508</t>
-  </si>
-  <si>
-    <t>p.global[5]     1.041057   1.078220</t>
-  </si>
-  <si>
-    <t>p.global[1]     1.031925   1.062709</t>
-  </si>
-  <si>
-    <t>resid.prop[1]   1.020967   1.062412</t>
-  </si>
-  <si>
-    <t>p.global[9]     1.017007   1.060122</t>
-  </si>
-  <si>
-    <t>p.global[3]     1.014105   1.042799</t>
-  </si>
-  <si>
-    <t>resid.prop[2]   1.009298   1.031919</t>
-  </si>
-  <si>
-    <t># Geweke Diagnostic</t>
-  </si>
-  <si>
-    <t>The Geweke diagnostic is a standard z-score, so we'd expect 5% to be outside +/-1.96</t>
-  </si>
-  <si>
-    <t>Number of variables outside +/-1.96 in each chain (out of 65):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       Chain 1 Chain 2 Chain 3</t>
-  </si>
-  <si>
-    <t>Geweke       3      20      15</t>
-  </si>
-  <si>
-    <t># Summary Statistics</t>
-  </si>
-  <si>
-    <t>DIC = -86.61858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                    Mean    SD  2.5%    5%   25%   50%   75%</t>
-  </si>
-  <si>
-    <t>Epsilon.1                          0.045 0.032 0.006 0.008 0.022 0.038 0.060</t>
-  </si>
-  <si>
-    <t>Epsilon.2                          0.786 0.284 0.297 0.366 0.583 0.758 0.959</t>
-  </si>
-  <si>
-    <t>p.global.epilimnion.SPOM           0.043 0.044 0.002 0.002 0.010 0.028 0.062</t>
-  </si>
-  <si>
-    <t>p.global.hypolimnion.SPOM          0.042 0.038 0.001 0.002 0.014 0.031 0.058</t>
-  </si>
-  <si>
-    <t>p.global.limnetic.FPOM             0.074 0.066 0.002 0.004 0.022 0.056 0.109</t>
-  </si>
-  <si>
-    <t>p.global.littoral.benthic.FPOM     0.037 0.032 0.002 0.003 0.012 0.027 0.054</t>
-  </si>
-  <si>
-    <t>p.global.littoral.CPOM             0.040 0.039 0.001 0.002 0.013 0.029 0.054</t>
-  </si>
-  <si>
-    <t>p.global.littoral.FPOM             0.112 0.078 0.005 0.009 0.049 0.100 0.161</t>
-  </si>
-  <si>
-    <t>p.global.littoral.FPOM.attached    0.050 0.045 0.001 0.002 0.016 0.038 0.071</t>
-  </si>
-  <si>
-    <t>p.global.littoral.FPOM.filamentous 0.042 0.044 0.001 0.002 0.012 0.027 0.054</t>
-  </si>
-  <si>
-    <t>p.global.littoral.SPOM             0.048 0.042 0.001 0.002 0.015 0.037 0.072</t>
-  </si>
-  <si>
-    <t>p.global.littoral.veg              0.513 0.092 0.354 0.371 0.444 0.509 0.572</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                     95% 97.5%</t>
-  </si>
-  <si>
-    <t>Epsilon.1                          0.108 0.125</t>
-  </si>
-  <si>
-    <t>Epsilon.2                          1.282 1.416</t>
-  </si>
-  <si>
-    <t>p.global.epilimnion.SPOM           0.134 0.171</t>
-  </si>
-  <si>
-    <t>p.global.hypolimnion.SPOM          0.116 0.145</t>
-  </si>
-  <si>
-    <t>p.global.limnetic.FPOM             0.205 0.233</t>
-  </si>
-  <si>
-    <t>p.global.littoral.benthic.FPOM     0.101 0.116</t>
-  </si>
-  <si>
-    <t>p.global.littoral.CPOM             0.119 0.147</t>
-  </si>
-  <si>
-    <t>p.global.littoral.FPOM             0.255 0.285</t>
-  </si>
-  <si>
-    <t>p.global.littoral.FPOM.attached    0.139 0.163</t>
-  </si>
-  <si>
-    <t>p.global.littoral.FPOM.filamentous 0.137 0.166</t>
-  </si>
-  <si>
-    <t>p.global.littoral.SPOM             0.136 0.150</t>
-  </si>
-  <si>
-    <t>p.global.littoral.veg              0.673 0.704</t>
-  </si>
-  <si>
-    <t>LONG</t>
+    <t>Out of 49 variables: 0 &gt; 1.01</t>
+  </si>
+  <si>
+    <t>resid.prop[2]   1.000763   1.003312</t>
+  </si>
+  <si>
+    <t>loglik[22]      1.000668   1.002308</t>
+  </si>
+  <si>
+    <t>loglik[28]      1.000635   1.002584</t>
+  </si>
+  <si>
+    <t>loglik[7]       1.000614   1.002502</t>
+  </si>
+  <si>
+    <t>loglik[4]       1.000421   1.000666</t>
+  </si>
+  <si>
+    <t>loglik[36]      1.000412   1.000675</t>
+  </si>
+  <si>
+    <t>loglik[39]      1.000371   1.000549</t>
+  </si>
+  <si>
+    <t>loglik[42]      1.000335   1.001762</t>
+  </si>
+  <si>
+    <t>loglik[11]      1.000260   1.000762</t>
+  </si>
+  <si>
+    <t>deviance        1.000228   1.000566</t>
+  </si>
+  <si>
+    <t>Number of variables outside +/-1.96 in each chain (out of 49):</t>
+  </si>
+  <si>
+    <t>Geweke       4       0       0</t>
+  </si>
+  <si>
+    <t>DIC = -46.6899</t>
+  </si>
+  <si>
+    <t>Epsilon.1     0.050 0.015 0.025 0.028 0.039 0.048 0.059 0.076 0.085</t>
+  </si>
+  <si>
+    <t>Epsilon.2     0.135 0.051 0.055 0.065 0.099 0.128 0.162 0.233 0.259</t>
+  </si>
+  <si>
+    <t>p.global.CPOM 0.032 0.027 0.001 0.002 0.011 0.025 0.045 0.086 0.101</t>
+  </si>
+  <si>
+    <t>p.global.FPOM 0.956 0.029 0.884 0.899 0.940 0.963 0.978 0.991 0.994</t>
+  </si>
+  <si>
+    <t>p.global.SPOM 0.012 0.011 0.000 0.001 0.004 0.009 0.017 0.035 0.041</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -424,8 +520,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,301 +836,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E0BB25-9AD7-EC47-94EB-9198F9AA078A}">
-  <dimension ref="A1:D66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB8568C-D1DF-4FAA-B5AC-3428BEBAF4C2}">
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1042,6 +1036,350 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E0BB25-9AD7-EC47-94EB-9198F9AA078A}">
+  <dimension ref="A1:I52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="I30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="I43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I44" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD5393A-1427-D04C-B7A3-A422299CE47D}">
   <dimension ref="A1:A110"/>
   <sheetViews>
@@ -1049,424 +1387,424 @@
       <selection sqref="A1:C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>65</v>
       </c>

--- a/Gantt Lake Stable Isotope/Gantt_MixSIAR Outputs.xlsx
+++ b/Gantt Lake Stable Isotope/Gantt_MixSIAR Outputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjf0021\Documents\GitHub\Gantt-Stable-Isotope\Gantt Lake Stable Isotope\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{429AFC63-A6FA-44FE-B43B-1AAE83415C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22D2C923-42B0-4FB8-AE04-233860675691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1575" windowWidth="29040" windowHeight="15840" xr2:uid="{8C96F04C-207B-8F44-AB27-8BF7B317D104}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="code" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="148">
   <si>
     <t xml:space="preserve">NULL Model - Uninformative Prior </t>
   </si>
@@ -477,6 +476,9 @@
   </si>
   <si>
     <t>p.global.SPOM 0.012 0.011 0.000 0.001 0.004 0.009 0.017 0.035 0.041</t>
+  </si>
+  <si>
+    <t>Species Model</t>
   </si>
 </sst>
 </file>
@@ -837,75 +839,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB8568C-D1DF-4FAA-B5AC-3428BEBAF4C2}">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>131</v>
       </c>
